--- a/biology/Botanique/Taxodium/Taxodium.xlsx
+++ b/biology/Botanique/Taxodium/Taxodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Taxodium est un genre de conifères qui comprend trois espèces de la famille des Taxodiaceae en classification classique, et des Cupressaceae en classification phylogénétique. Deux de ces espèces, Taxodium ascendens et Taxodium distichum, ont un feuillage caduc, alors que celui de Taxodium mucronatum est persistant comme chez la plupart de conifères. Le nom Taxodium vient du latin taxus, désignant l'if et du grec εἶδος (eidos), signifiant « forme », « semblable à ». Cette étymologie fait référence à son feuillage qui ressemble à celui de l'if.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Taxodium ascendens Brongn. -- Cyprès des étangs
 Taxodium distichum (L.) L.C. Rich. -- Cyprès chauve
